--- a/biology/Botanique/Jean-Joseph_Picoré/Jean-Joseph_Picoré.xlsx
+++ b/biology/Botanique/Jean-Joseph_Picoré/Jean-Joseph_Picoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Joseph_Picor%C3%A9</t>
+          <t>Jean-Joseph_Picoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Joseph Picoré, né à Nancy le 2 décembre 1844 et mort dans la même ville le 8 septembre 1928[1], est un arboriculteur et paysagiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph Picoré, né à Nancy le 2 décembre 1844 et mort dans la même ville le 8 septembre 1928, est un arboriculteur et paysagiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Joseph_Picor%C3%A9</t>
+          <t>Jean-Joseph_Picoré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Joseph Picoré naît à Nancy le 2 décembre 1844.
 Après une scolarité dans sa ville natale, Jean-Joseph Picoré entre en apprentissage dans les pépinières de Louis Crousse, en même temps que son fils, François-Félix Crousse, qui deviendra un horticulteur de renom.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Joseph_Picor%C3%A9</t>
+          <t>Jean-Joseph_Picoré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Parcs créés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les nombreux parcs publics ou privés créés à Nancy, en Lorraine et même au-delà, sont toujours visibles :
 Parc romantique du Château du Grand Jardin à Joinville (1907),
